--- a/Assets/4.Resources/textdatasheet.xlsx
+++ b/Assets/4.Resources/textdatasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\4.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74ED31D-71D5-4E5E-887F-2FBBE322F6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE5045-559B-416E-85C6-41F8D29A6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10050" yWindow="2640" windowWidth="13470" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
@@ -50,43 +50,47 @@
     <t>ㄹㄹ</t>
   </si>
   <si>
-    <t>ㅍㅊㅍㅍㅍ</t>
-  </si>
-  <si>
-    <t>ㅎㅎㅎ</t>
-  </si>
-  <si>
-    <t>ㅠㅊ퓨츛퓨</t>
-  </si>
-  <si>
     <t>ㅎㅎ</t>
   </si>
   <si>
-    <t>ㅌㅊ픁ㅊ퓨</t>
+    <t>ㅍㅌ츛퓨</t>
+  </si>
+  <si>
+    <t>퓨ㅜ풍ㄹ호</t>
+  </si>
+  <si>
+    <t>&lt;나&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어라? 나 분명 방금까지…"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 어디지…? 내가 누구더라...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이봐! 드디어 일어난거야?</t>
+  </si>
+  <si>
+    <t>지금 세계는 마왕이 저주를 걸면서 모든 사람들의 코딩능력을 뺏어갔어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅋㅌㅊㅍㅋㅌㅊㅍㅋㅌ</t>
-  </si>
-  <si>
-    <t>ㅍㅌ츛퓨</t>
-  </si>
-  <si>
-    <t>퓨ㅜ풍ㄹ호</t>
-  </si>
-  <si>
-    <t>&lt;나&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"…"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"어라? 나 분명 방금까지…"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기는 어디지…? 내가 누구더라...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 나는 마침내 이 세계를 구할 용사로 너를 소환했지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +458,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -502,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -513,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,21 +528,21 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -568,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/Assets/4.Resources/textdatasheet.xlsx
+++ b/Assets/4.Resources/textdatasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\4.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE5045-559B-416E-85C6-41F8D29A6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26209600-5989-479B-BAC9-694AFBBDC38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="2640" windowWidth="13470" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>EventNumber</t>
   </si>
@@ -47,18 +47,6 @@
     <t>Conversation</t>
   </si>
   <si>
-    <t>ㄹㄹ</t>
-  </si>
-  <si>
-    <t>ㅎㅎ</t>
-  </si>
-  <si>
-    <t>ㅍㅌ츛퓨</t>
-  </si>
-  <si>
-    <t>퓨ㅜ풍ㄹ호</t>
-  </si>
-  <si>
     <t>&lt;나&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,11 +74,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅋㅌㅊㅍㅋㅌㅊㅍㅋㅌ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그리고 나는 마침내 이 세계를 구할 용사로 너를 소환했지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 너의 이름과 나이를 알려줘..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…뭐? 어떻게 해야하는지 잘 모르겠다고..? 이것 참 난감한걸..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드박사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 나는 월드박사야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 연구실을 둘러다보면 기억이 날 지도 몰라. 이것 저것 만져봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 둘러보란말이야</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +466,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,18 +547,18 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -558,29 +566,46 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
